--- a/SECTION SIMULATION STUDIES/Simulation Studies.xlsx
+++ b/SECTION SIMULATION STUDIES/Simulation Studies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yifan Yang\Desktop\SUB_2 SPATIAL DEPENDENCE\MAUD\VERSION 3.0.0\SECTION SIMULATION STUDIES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yifan Yang\Desktop\SUB_2 SPATIAL DEPENDENCE\MAUD\VERSION 1.0.0\SECTION SIMULATION STUDIES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE90928-6D17-4BC6-9B5A-8EC18A86B958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C4B077-5E93-496E-AF55-15D65AAD5B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="41">
   <si>
     <t>MAUD</t>
   </si>
@@ -159,7 +159,7 @@
     <t>MLRM</t>
   </si>
   <si>
-    <t>Bias of beta estimator</t>
+    <t>relative bias</t>
   </si>
 </sst>
 </file>
@@ -226,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -244,17 +244,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -559,93 +553,100 @@
   <dimension ref="A1:U71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="N1" sqref="N1:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="8.88671875" style="8"/>
-    <col min="5" max="5" width="8.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="7"/>
+    <col min="5" max="5" width="8.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="O1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>1.24</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>1.68</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>1.66</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="12">
         <v>88.9</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>1.66</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="12">
         <v>88.9</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>1.64</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="12">
         <v>88</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="6"/>
@@ -654,157 +655,175 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>0.63</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>2.57</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>2.5</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>93.3</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>2.5</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="12">
         <v>93.6</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>2.4500000000000002</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="12">
         <v>92.8</v>
       </c>
       <c r="N3" s="3">
         <v>100</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="14">
         <v>7.4540430000000005E-2</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="14">
+        <f xml:space="preserve"> O3/2.582</f>
+        <v>2.8869260263361739E-2</v>
+      </c>
+      <c r="Q3" s="14">
         <v>0.49517660000000002</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
+      <c r="R3" s="14">
+        <f xml:space="preserve"> Q3/13.128</f>
+        <v>3.771911943936624E-2</v>
+      </c>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>-0.61</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>4.33</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>4.1500000000000004</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>93.9</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>4.13</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="12">
         <v>94</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>4.05</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="12">
         <v>93.3</v>
       </c>
       <c r="N4" s="3">
         <v>200</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="15">
         <v>6.1329160000000001E-2</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="14">
+        <f xml:space="preserve"> O4/1.826</f>
+        <v>3.3586615553121577E-2</v>
+      </c>
+      <c r="Q4" s="14">
         <v>8.0446160000000003E-2</v>
       </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
+      <c r="R4" s="14">
+        <f xml:space="preserve"> Q4/9.283</f>
+        <v>8.6659657438328142E-3</v>
+      </c>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>1.3</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>1.55</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>1.55</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>86.6</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>1.55</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="12">
         <v>86.7</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>1.53</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="12">
         <v>86.2</v>
       </c>
       <c r="N5" s="3">
         <v>300</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="14">
         <v>4.4462399999999999E-2</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="14">
+        <f xml:space="preserve"> O5/1.491</f>
+        <v>2.9820523138832995E-2</v>
+      </c>
+      <c r="Q5" s="14">
         <v>0.30339899999999997</v>
       </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
+      <c r="R5" s="14">
+        <f>Q5/7.58</f>
+        <v>4.0026253298153028E-2</v>
+      </c>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>-1.1599999999999999</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>5.0599999999999996</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>4.91</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <v>94.4</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>4.91</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="12">
         <v>94.4</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>4.8099999999999996</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="12">
         <v>92.3</v>
       </c>
     </row>
@@ -812,28 +831,28 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>0.2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>3.32</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>0.41</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>86.1</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>0.41</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="12">
         <v>86.2</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>0.41</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="12">
         <v>85.2</v>
       </c>
     </row>
@@ -841,28 +860,28 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -870,28 +889,28 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>1.17</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <v>93.4</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>1.17</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="12">
         <v>93.5</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>1.1599999999999999</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="12">
         <v>92.9</v>
       </c>
     </row>
@@ -899,28 +918,28 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>0.31</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>1.79</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>1.75</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="12">
         <v>94.5</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>1.75</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="12">
         <v>94.5</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>1.73</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="12">
         <v>95.1</v>
       </c>
     </row>
@@ -931,28 +950,28 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>-0.23</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>3.03</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>2.89</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <v>93.8</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>2.89</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="12">
         <v>93.7</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>2.86</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="12">
         <v>93.2</v>
       </c>
     </row>
@@ -960,28 +979,28 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>0.64</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <v>90.8</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>1.0900000000000001</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="12">
         <v>90.8</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>1.08</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="12">
         <v>90.1</v>
       </c>
     </row>
@@ -989,28 +1008,28 @@
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>-0.51</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>3.54</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>3.44</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <v>93.9</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>3.44</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="12">
         <v>93.8</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>3.4</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="12">
         <v>93.7</v>
       </c>
     </row>
@@ -1018,28 +1037,28 @@
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>0.18</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="12">
         <v>90.2</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="12">
         <v>90.2</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="12">
         <v>89.9</v>
       </c>
     </row>
@@ -1047,28 +1066,28 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1076,28 +1095,28 @@
       <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>0.36</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>0.93</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>0.95</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="12">
         <v>94.1</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>0.95</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="12">
         <v>94.3</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <v>0.95</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="12">
         <v>93.9</v>
       </c>
       <c r="O16" s="4"/>
@@ -1106,28 +1125,28 @@
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>0.24</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>1.39</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>1.42</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="12">
         <v>95</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>1.42</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="12">
         <v>95</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <v>1.41</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="12">
         <v>94.8</v>
       </c>
       <c r="O17" s="4"/>
@@ -1136,28 +1155,28 @@
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>-0.18</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>2.44</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>2.35</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="12">
         <v>94.7</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>2.35</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="12">
         <v>94.7</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <v>2.34</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="12">
         <v>94.4</v>
       </c>
       <c r="O18" s="4"/>
@@ -1166,28 +1185,28 @@
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>0.45</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>0.91</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>0.89</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="12">
         <v>91.9</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>0.89</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="12">
         <v>92</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>0.88</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="12">
         <v>91.6</v>
       </c>
       <c r="O19" s="4"/>
@@ -1196,28 +1215,28 @@
       <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>-0.32</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>2.84</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>2.8</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="12">
         <v>94.4</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>2.8</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="12">
         <v>94.4</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <v>2.78</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="12">
         <v>94.7</v>
       </c>
       <c r="O20" s="4"/>
@@ -1226,28 +1245,28 @@
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>0.12</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>0.23</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>0.24</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="12">
         <v>92.6</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>0.24</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="12">
         <v>92.6</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <v>0.24</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="12">
         <v>92.7</v>
       </c>
       <c r="O21" s="4"/>
@@ -1262,28 +1281,28 @@
       <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="8" t="s">
         <v>37</v>
       </c>
       <c r="O24" s="4"/>
@@ -1292,28 +1311,28 @@
       <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>3.65</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>6.46</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>6.28</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="12">
         <v>89.9</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <v>5.3</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="12">
         <v>83.6</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="7">
         <v>6.17</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="12">
         <v>89.1</v>
       </c>
       <c r="O25" s="4"/>
@@ -1322,28 +1341,28 @@
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>13.32</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>28.24</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>9.57</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="12">
         <v>68.7</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <v>9.2899999999999991</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="12">
         <v>68.900000000000006</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <v>9.1199999999999992</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="12">
         <v>68.099999999999994</v>
       </c>
       <c r="O26" s="4"/>
@@ -1352,28 +1371,28 @@
       <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>0.16</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>11.58</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>10.15</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="12">
         <v>91.1</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <v>10.14</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="12">
         <v>90.9</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <v>9.83</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="12">
         <v>90.5</v>
       </c>
       <c r="O27" s="4"/>
@@ -1382,28 +1401,28 @@
       <c r="B28" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>-50.18</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>94.92</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>10.15</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="12">
         <v>62.2</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <v>10.3</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="12">
         <v>62</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="7">
         <v>9.75</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="12">
         <v>61.2</v>
       </c>
       <c r="O28" s="4"/>
@@ -1412,28 +1431,28 @@
       <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>38.51</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>63.98</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <v>10.25</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="12">
         <v>67.3</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="7">
         <v>10.57</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="12">
         <v>67.3</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="7">
         <v>8.32</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="12">
         <v>67.099999999999994</v>
       </c>
       <c r="O29" s="4"/>
@@ -1442,28 +1461,28 @@
       <c r="B30" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>2.59</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>5.42</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <v>5.28</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="12">
         <v>91.7</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <v>3.92</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="12">
         <v>80.099999999999994</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="7">
         <v>5.23</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="12">
         <v>90.7</v>
       </c>
       <c r="O30" s="4"/>
@@ -1472,28 +1491,28 @@
       <c r="B31" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>-12.28</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>28.96</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
         <v>9.9600000000000009</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="12">
         <v>67.599999999999994</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="7">
         <v>10.31</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="12">
         <v>68.8</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="7">
         <v>9.89</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="12">
         <v>67.2</v>
       </c>
       <c r="O31" s="4"/>
@@ -1502,28 +1521,28 @@
       <c r="B32" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>1.32</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>16.18</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
         <v>12.71</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="12">
         <v>91.8</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <v>13.46</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="12">
         <v>93.3</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="7">
         <v>12.31</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="12">
         <v>90.4</v>
       </c>
       <c r="O32" s="4"/>
@@ -1532,28 +1551,28 @@
       <c r="B33" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>-2.35</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>16.03</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <v>12.85</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="12">
         <v>91.5</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="7">
         <v>13.35</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="12">
         <v>92.9</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="7">
         <v>12.44</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="12">
         <v>89.5</v>
       </c>
       <c r="O33" s="4"/>
@@ -1562,28 +1581,28 @@
       <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>2.48</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>6.48</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="7">
         <v>6.24</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="12">
         <v>93.3</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="7">
         <v>5.84</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="12">
         <v>90.9</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="7">
         <v>6.2</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="12">
         <v>92.2</v>
       </c>
     </row>
@@ -1591,28 +1610,28 @@
       <c r="B35" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>56.18</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>93.56</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="7">
         <v>10.91</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="12">
         <v>67.5</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="7">
         <v>11.38</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="12">
         <v>67.7</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="7">
         <v>10.55</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="12">
         <v>66.900000000000006</v>
       </c>
       <c r="O35" s="4"/>
@@ -1621,28 +1640,28 @@
       <c r="B36" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>-39.47</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>65.61</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="7">
         <v>13.16</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="12">
         <v>68.3</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="7">
         <v>13.25</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="12">
         <v>68.8</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="7">
         <v>14.46</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="12">
         <v>68.5</v>
       </c>
       <c r="O36" s="4"/>
@@ -1651,28 +1670,28 @@
       <c r="B37" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>2.0099999999999998</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>3.83</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="7">
         <v>3.74</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="12">
         <v>90.7</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="7">
         <v>3.72</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="12">
         <v>90.7</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="7">
         <v>3.69</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="12">
         <v>89.8</v>
       </c>
       <c r="O37" s="4"/>
@@ -1681,28 +1700,28 @@
       <c r="B38" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>1.05</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>15.55</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="7">
         <v>13.15</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="12">
         <v>91.9</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="7">
         <v>13.25</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="12">
         <v>91.8</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="7">
         <v>12.89</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="12">
         <v>90.2</v>
       </c>
       <c r="O38" s="4"/>
@@ -1711,28 +1730,28 @@
       <c r="B39" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>3.06</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>6.41</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="7">
         <v>6.31</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="12">
         <v>92.7</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="7">
         <v>6.27</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="12">
         <v>92.4</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="7">
         <v>6.24</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="12">
         <v>91.6</v>
       </c>
       <c r="O39" s="4"/>
@@ -1741,28 +1760,28 @@
       <c r="B40" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="I40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="J40" s="8" t="s">
         <v>37</v>
       </c>
       <c r="O40" s="4"/>
@@ -1771,28 +1790,28 @@
       <c r="B41" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>1.73</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>4.7</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="12">
         <v>92</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="7">
         <v>3.69</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="12">
         <v>87.19</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="7">
         <v>4.3600000000000003</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="12">
         <v>91</v>
       </c>
       <c r="O41" s="4"/>
@@ -1801,28 +1820,28 @@
       <c r="B42" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>7.1</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>23.25</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="7">
         <v>6.58</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="12">
         <v>76.3</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="7">
         <v>6.15</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="12">
         <v>74.47</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="7">
         <v>6.45</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="12">
         <v>76.3</v>
       </c>
       <c r="O42" s="4"/>
@@ -1831,28 +1850,28 @@
       <c r="B43" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>-0.53</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>8.18</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="7">
         <v>7.07</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="12">
         <v>91.4</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="7">
         <v>7.02</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="12">
         <v>91.6</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="7">
         <v>6.95</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="12">
         <v>91</v>
       </c>
       <c r="O43" s="4"/>
@@ -1861,28 +1880,28 @@
       <c r="B44" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>-28.95</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>76.08</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="7">
         <v>6.99</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="12">
         <v>74.8</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="7">
         <v>6.97</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="12">
         <v>74.569999999999993</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="7">
         <v>6.89</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J44" s="12">
         <v>74.599999999999994</v>
       </c>
       <c r="O44" s="4"/>
@@ -1891,28 +1910,28 @@
       <c r="B45" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>21.78</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>50.51</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="7">
         <v>6.66</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="12">
         <v>78.2</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="7">
         <v>6.67</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="12">
         <v>77.180000000000007</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I45" s="7">
         <v>5.88</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45" s="12">
         <v>77.8</v>
       </c>
       <c r="O45" s="4"/>
@@ -1921,28 +1940,28 @@
       <c r="B46" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <v>0.71</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>3.87</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="7">
         <v>3.72</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F46" s="12">
         <v>93.5</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="7">
         <v>2.73</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="12">
         <v>83.08</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="7">
         <v>3.7</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J46" s="12">
         <v>93.6</v>
       </c>
       <c r="O46" s="4"/>
@@ -1954,28 +1973,28 @@
       <c r="B47" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>-7.05</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>23.5</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="7">
         <v>6.98</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="12">
         <v>78.3</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="7">
         <v>7.09</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="12">
         <v>79.08</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="7">
         <v>6.99</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="12">
         <v>77.099999999999994</v>
       </c>
       <c r="O47" s="4"/>
@@ -1984,28 +2003,28 @@
       <c r="B48" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <v>2.4700000000000002</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>10.02</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="7">
         <v>8.73</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="12">
         <v>91.6</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="7">
         <v>8.92</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="12">
         <v>91.89</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="7">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48" s="12">
         <v>91.6</v>
       </c>
       <c r="O48" s="4"/>
@@ -2014,28 +2033,28 @@
       <c r="B49" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>-2.8</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>10.48</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="7">
         <v>8.89</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="12">
         <v>90.4</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="7">
         <v>8.91</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="12">
         <v>90.99</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="7">
         <v>8.7899999999999991</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J49" s="12">
         <v>89.6</v>
       </c>
       <c r="O49" s="4"/>
@@ -2044,28 +2063,28 @@
       <c r="B50" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="7">
         <v>1.1399999999999999</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <v>4.46</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="7">
         <v>4.3899999999999997</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F50" s="12">
         <v>94.5</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="7">
         <v>4.1100000000000003</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="12">
         <v>92.39</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="7">
         <v>4.3899999999999997</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J50" s="12">
         <v>94.3</v>
       </c>
     </row>
@@ -2073,28 +2092,28 @@
       <c r="B51" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="7">
         <v>33.4</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <v>76.930000000000007</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="7">
         <v>7.57</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="12">
         <v>76.900000000000006</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="7">
         <v>7.67</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="12">
         <v>77.48</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I51" s="7">
         <v>7.46</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="12">
         <v>76.7</v>
       </c>
       <c r="O51" s="4"/>
@@ -2103,28 +2122,28 @@
       <c r="B52" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="7">
         <v>-24.93</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="7">
         <v>52.67</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="7">
         <v>9.6</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F52" s="12">
         <v>77.2</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="7">
         <v>9.6</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H52" s="12">
         <v>77.78</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="7">
         <v>10.220000000000001</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J52" s="12">
         <v>77.400000000000006</v>
       </c>
       <c r="O52" s="4"/>
@@ -2133,28 +2152,28 @@
       <c r="B53" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="7">
         <v>1</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="7">
         <v>2.88</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="7">
         <v>2.63</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="12">
         <v>92</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="7">
         <v>2.61</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="12">
         <v>91.8</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I53" s="7">
         <v>2.61</v>
       </c>
-      <c r="J53" s="14">
+      <c r="J53" s="12">
         <v>91.3</v>
       </c>
       <c r="O53" s="4"/>
@@ -2163,28 +2182,28 @@
       <c r="B54" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="7">
         <v>-0.23</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <v>10.08</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="7">
         <v>9.2200000000000006</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F54" s="12">
         <v>93</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="7">
         <v>9.26</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H54" s="12">
         <v>93.19</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54" s="7">
         <v>9.11</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J54" s="12">
         <v>92.4</v>
       </c>
       <c r="O54" s="4"/>
@@ -2193,28 +2212,28 @@
       <c r="B55" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="7">
         <v>1.51</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="7">
         <v>4.68</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="7">
         <v>4.43</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55" s="12">
         <v>92.4</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="7">
         <v>4.41</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55" s="12">
         <v>92.4</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I55" s="7">
         <v>4.41</v>
       </c>
-      <c r="J55" s="14">
+      <c r="J55" s="12">
         <v>92.4</v>
       </c>
       <c r="O55" s="4"/>
@@ -2223,28 +2242,28 @@
       <c r="B56" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="H56" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I56" s="8" t="s">
+      <c r="I56" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J56" s="9" t="s">
+      <c r="J56" s="8" t="s">
         <v>37</v>
       </c>
       <c r="O56" s="4"/>
@@ -2253,28 +2272,28 @@
       <c r="B57" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <v>0.99</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <v>3.93</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="7">
         <v>3.58</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="12">
         <v>91.7</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="7">
         <v>2.99</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="12">
         <v>85.4</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I57" s="7">
         <v>3.56</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J57" s="12">
         <v>91.2</v>
       </c>
       <c r="O57" s="4"/>
@@ -2284,28 +2303,28 @@
       <c r="B58" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="7">
         <v>2.83</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="7">
         <v>16.77</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="7">
         <v>5.3</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F58" s="12">
         <v>84</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="7">
         <v>4.8899999999999997</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H58" s="12">
         <v>81.7</v>
       </c>
-      <c r="I58" s="8">
+      <c r="I58" s="7">
         <v>5.26</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J58" s="12">
         <v>83.8</v>
       </c>
       <c r="O58" s="4"/>
@@ -2315,28 +2334,28 @@
       <c r="B59" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="7">
         <v>-0.32</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="7">
         <v>6.69</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E59" s="7">
         <v>5.75</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F59" s="12">
         <v>90.7</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="7">
         <v>5.7</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="12">
         <v>90.7</v>
       </c>
-      <c r="I59" s="8">
+      <c r="I59" s="7">
         <v>5.67</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J59" s="12">
         <v>90</v>
       </c>
       <c r="O59" s="4"/>
@@ -2346,28 +2365,28 @@
       <c r="B60" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="7">
         <v>-13.27</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="7">
         <v>56.22</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E60" s="7">
         <v>5.65</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="12">
         <v>82</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="7">
         <v>5.61</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="12">
         <v>81.599999999999994</v>
       </c>
-      <c r="I60" s="8">
+      <c r="I60" s="7">
         <v>5.63</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J60" s="12">
         <v>81.900000000000006</v>
       </c>
       <c r="O60" s="4"/>
@@ -2377,28 +2396,28 @@
       <c r="B61" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="7">
         <v>10.59</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="7">
         <v>37.799999999999997</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61" s="7">
         <v>5.14</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F61" s="12">
         <v>83.3</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61" s="7">
         <v>5.09</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="12">
         <v>82.7</v>
       </c>
-      <c r="I61" s="8">
+      <c r="I61" s="7">
         <v>4.8</v>
       </c>
-      <c r="J61" s="14">
+      <c r="J61" s="12">
         <v>82.7</v>
       </c>
       <c r="O61" s="4"/>
@@ -2408,28 +2427,28 @@
       <c r="B62" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="7">
         <v>0.38</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="7">
         <v>3.2</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E62" s="7">
         <v>3.03</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F62" s="12">
         <v>93.6</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="7">
         <v>2.2200000000000002</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H62" s="12">
         <v>82.2</v>
       </c>
-      <c r="I62" s="8">
+      <c r="I62" s="7">
         <v>3.02</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J62" s="12">
         <v>93.8</v>
       </c>
       <c r="O62" s="4"/>
@@ -2439,28 +2458,28 @@
       <c r="B63" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="7">
         <v>-2.71</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="7">
         <v>17.350000000000001</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63" s="7">
         <v>5.72</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F63" s="12">
         <v>85</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="7">
         <v>5.79</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H63" s="12">
         <v>85.3</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I63" s="7">
         <v>5.71</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J63" s="12">
         <v>84.6</v>
       </c>
       <c r="O63" s="4"/>
@@ -2470,28 +2489,28 @@
       <c r="B64" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="7">
         <v>2.71</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="7">
         <v>8.25</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64" s="7">
         <v>7.07</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F64" s="12">
         <v>88.6</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="7">
         <v>7.17</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H64" s="12">
         <v>89.3</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I64" s="7">
         <v>7.11</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J64" s="12">
         <v>89.4</v>
       </c>
       <c r="O64" s="4"/>
@@ -2501,28 +2520,28 @@
       <c r="B65" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="7">
         <v>-2.81</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="7">
         <v>8.14</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="7">
         <v>7.21</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F65" s="12">
         <v>90.3</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="7">
         <v>7.17</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H65" s="12">
         <v>90.2</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I65" s="7">
         <v>7.18</v>
       </c>
-      <c r="J65" s="14">
+      <c r="J65" s="12">
         <v>90.2</v>
       </c>
       <c r="O65" s="4"/>
@@ -2532,59 +2551,59 @@
       <c r="B66" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="7">
         <v>0.89</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="7">
         <v>3.75</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E66" s="7">
         <v>3.59</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F66" s="12">
         <v>93.4</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G66" s="7">
         <v>3.37</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H66" s="12">
         <v>91.7</v>
       </c>
-      <c r="I66" s="8">
+      <c r="I66" s="7">
         <v>3.58</v>
       </c>
-      <c r="J66" s="14">
+      <c r="J66" s="12">
         <v>93.2</v>
       </c>
-      <c r="O66" s="15"/>
+      <c r="O66" s="13"/>
       <c r="P66" s="2"/>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>27</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="7">
         <v>17.059999999999999</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="7">
         <v>56.7</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E67" s="7">
         <v>6.16</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F67" s="12">
         <v>84.2</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="7">
         <v>6.21</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="12">
         <v>84.8</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I67" s="7">
         <v>6.09</v>
       </c>
-      <c r="J67" s="14">
+      <c r="J67" s="12">
         <v>84</v>
       </c>
       <c r="O67" s="4"/>
@@ -2594,28 +2613,28 @@
       <c r="B68" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="7">
         <v>-13.68</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="7">
         <v>39.61</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E68" s="7">
         <v>8.07</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F68" s="12">
         <v>84.8</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68" s="7">
         <v>8.06</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H68" s="12">
         <v>85.2</v>
       </c>
-      <c r="I68" s="8">
+      <c r="I68" s="7">
         <v>8.35</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J68" s="12">
         <v>85.4</v>
       </c>
       <c r="O68" s="4"/>
@@ -2625,28 +2644,28 @@
       <c r="B69" t="s">
         <v>29</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="7">
         <v>0.67</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="7">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E69" s="7">
         <v>2.14</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F69" s="12">
         <v>94.2</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G69" s="7">
         <v>2.13</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H69" s="12">
         <v>94</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I69" s="7">
         <v>2.13</v>
       </c>
-      <c r="J69" s="14">
+      <c r="J69" s="12">
         <v>93.7</v>
       </c>
       <c r="O69" s="4"/>
@@ -2656,28 +2675,28 @@
       <c r="B70" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="7">
         <v>-0.26</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="7">
         <v>8.67</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E70" s="7">
         <v>7.52</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F70" s="12">
         <v>91.6</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G70" s="7">
         <v>7.54</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H70" s="12">
         <v>91.8</v>
       </c>
-      <c r="I70" s="8">
+      <c r="I70" s="7">
         <v>7.44</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J70" s="12">
         <v>91.3</v>
       </c>
       <c r="P70" s="2"/>
@@ -2686,35 +2705,36 @@
       <c r="B71" t="s">
         <v>31</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="7">
         <v>1.05</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="7">
         <v>3.7</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="7">
         <v>3.61</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F71" s="12">
         <v>94.2</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="7">
         <v>3.59</v>
       </c>
-      <c r="H71" s="14">
+      <c r="H71" s="12">
         <v>93.9</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I71" s="7">
         <v>3.6</v>
       </c>
-      <c r="J71" s="14">
+      <c r="J71" s="12">
         <v>93.5</v>
       </c>
       <c r="P71" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="N1:P1"/>
+  <mergeCells count="2">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2744,8 +2764,8 @@
         <v>18</v>
       </c>
       <c r="Q1" s="4"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
       <c r="Y1" s="4"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
@@ -2786,18 +2806,18 @@
         <v>39</v>
       </c>
       <c r="Q2" s="4"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
       <c r="Y2" s="4"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3.3762720000000002</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>0.154</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>0.13400000000000001</v>
       </c>
       <c r="D3" s="1">
@@ -2828,14 +2848,14 @@
         <v>0.152</v>
       </c>
       <c r="Q3" s="4"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>3.3762720000000002</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>0.154</v>
       </c>
       <c r="C4" s="1">
@@ -2869,15 +2889,15 @@
         <v>0.152</v>
       </c>
       <c r="Q4" s="4"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
       <c r="Y4" s="4"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>3.3762720000000002</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>0.154</v>
       </c>
       <c r="C5" s="1">
@@ -2914,10 +2934,10 @@
       <c r="Y5" s="4"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>3.3762720000000002</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>0.154</v>
       </c>
       <c r="C6" s="1">
@@ -2951,14 +2971,14 @@
         <v>0.153</v>
       </c>
       <c r="Q6" s="4"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>3.3762720000000002</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>0.152</v>
       </c>
       <c r="C7" s="1">
@@ -2992,8 +3012,8 @@
         <v>0.155</v>
       </c>
       <c r="Q7" s="4"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -3033,8 +3053,8 @@
         <v>0.156</v>
       </c>
       <c r="Q8" s="4"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
       <c r="Y8" s="4"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -3075,15 +3095,15 @@
         <v>0.153</v>
       </c>
       <c r="Q9" s="4"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
       <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>3.3762720000000002</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>0.154</v>
       </c>
       <c r="C10" s="1">
@@ -3118,10 +3138,10 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>3.3762720000000002</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>0.153</v>
       </c>
       <c r="C11" s="1">
@@ -3156,10 +3176,10 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>3.3762720000000002</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>0.154</v>
       </c>
       <c r="C12" s="1">
@@ -3193,15 +3213,15 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="Q12" s="4"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
       <c r="Y12" s="4"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>0</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="A13" s="7">
+        <v>0</v>
+      </c>
+      <c r="B13" s="7">
         <v>2.7E-2</v>
       </c>
       <c r="C13" s="1">
@@ -3235,15 +3255,15 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="Q13" s="4"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
       <c r="Y13" s="4"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>0</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="A14" s="7">
+        <v>0</v>
+      </c>
+      <c r="B14" s="7">
         <v>2.7E-2</v>
       </c>
       <c r="C14" s="1">
@@ -3277,8 +3297,8 @@
         <v>0.04</v>
       </c>
       <c r="Q14" s="4"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -3318,15 +3338,15 @@
         <v>0.04</v>
       </c>
       <c r="Q15" s="4"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
       <c r="Y15" s="4"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>0</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="A16" s="7">
+        <v>0</v>
+      </c>
+      <c r="B16" s="7">
         <v>2.7E-2</v>
       </c>
       <c r="C16" s="1">
@@ -3363,10 +3383,10 @@
       <c r="Y16" s="4"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>0</v>
-      </c>
-      <c r="B17" s="8">
+      <c r="A17" s="7">
+        <v>0</v>
+      </c>
+      <c r="B17" s="7">
         <v>2.7E-2</v>
       </c>
       <c r="C17" s="1">
@@ -3400,14 +3420,14 @@
         <v>3.9E-2</v>
       </c>
       <c r="Q17" s="4"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>0</v>
-      </c>
-      <c r="B18" s="8">
+      <c r="A18" s="7">
+        <v>0</v>
+      </c>
+      <c r="B18" s="7">
         <v>2.7E-2</v>
       </c>
       <c r="C18" s="1">
@@ -3441,14 +3461,14 @@
         <v>0.04</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>0</v>
-      </c>
-      <c r="B19" s="8">
+      <c r="A19" s="7">
+        <v>0</v>
+      </c>
+      <c r="B19" s="7">
         <v>2.7E-2</v>
       </c>
       <c r="C19" s="1">
@@ -3482,15 +3502,15 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="Q19" s="4"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
       <c r="Y19" s="4"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>0</v>
-      </c>
-      <c r="B20" s="8">
+      <c r="A20" s="7">
+        <v>0</v>
+      </c>
+      <c r="B20" s="7">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="C20" s="1">
@@ -3524,8 +3544,8 @@
         <v>0.04</v>
       </c>
       <c r="Q20" s="4"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
       <c r="Y20" s="4"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
@@ -3566,8 +3586,8 @@
         <v>3.9E-2</v>
       </c>
       <c r="Q21" s="4"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
       <c r="Y21" s="4"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
@@ -3608,8 +3628,8 @@
         <v>3.9E-2</v>
       </c>
       <c r="Q22" s="4"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
       <c r="Y22" s="4"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
@@ -3650,8 +3670,8 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="Q23" s="4"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -3691,8 +3711,8 @@
         <v>0.16300000000000001</v>
       </c>
       <c r="Q24" s="4"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
       <c r="Y24" s="4"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
@@ -3773,8 +3793,8 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="Q26" s="4"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -3814,8 +3834,8 @@
         <v>0.16300000000000001</v>
       </c>
       <c r="Q27" s="4"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -3855,8 +3875,8 @@
         <v>0.16300000000000001</v>
       </c>
       <c r="Q28" s="4"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
       <c r="Y28" s="4"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
@@ -3897,8 +3917,8 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="Q29" s="4"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
       <c r="Y29" s="4"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
@@ -3939,8 +3959,8 @@
         <v>0.16300000000000001</v>
       </c>
       <c r="Q30" s="4"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
